--- a/Input/ADNT_International/benefits.xlsx
+++ b/Input/ADNT_International/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -260,7 +260,10 @@
     <t xml:space="preserve">Covered as stipulated by MOH</t>
   </si>
   <si>
-    <t xml:space="preserve">Options available</t>
+    <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 4,100 with 10% co-pay (note: benefit available for married females only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No wait</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 150,000</t>
@@ -269,7 +272,10 @@
     <t xml:space="preserve">Covered for first 30 days</t>
   </si>
   <si>
-    <t xml:space="preserve">No benefit (Optional)</t>
+    <t xml:space="preserve">Covered up to USD 1,400 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with limitations up to USD 400 with 20% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Diabetes Screening- Covered every 3 years from age 30 High risk individuals annually from age 18 yrs Routine checkup- One check up covered every two years up to USD 500 (UAE only)</t>
@@ -296,25 +302,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Consultation NIL, OP- NIL , Pharmacy- NIL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/Nil/Nil/Nil</t>
-    </r>
+    <t xml:space="preserve">Consultation NIL, OP- NIL , Pharmacy- NIL/Nil/Nil/Nil</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-01</t>
@@ -363,6 +351,15 @@
     <t xml:space="preserve">Inside UAE- Covered in full subject to declaration *6 months wait applicable if COC is not provided Outside UAE- Covered up to USD 5,000 (Combined with chronic conditions)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 6,900 with 10% co-pay (note: benefit available for married females only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 2,100 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with limitations up to USD 700 with 20% co-pay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diabetes Screening- Covered every 3 years from age 30 High risk individuals annually from age 18 yrs Routine checkup- One check up covered every two years up to USD 750 (UAE only)</t>
   </si>
   <si>
@@ -411,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -452,14 +449,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -511,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,15 +518,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,7 +530,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK2" activeCellId="0" sqref="BK2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,7 +576,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="72.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="46.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="55.79"/>
@@ -784,7 +770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>60</v>
       </c>
@@ -794,7 +780,7 @@
       <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -830,7 +816,7 @@
       <c r="Q2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="S2" s="0" t="s">
@@ -845,105 +831,105 @@
       <c r="V2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="0" t="s">
-        <v>73</v>
+      <c r="Y2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>76</v>
+      <c r="AC2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>68</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF2" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="BE2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="BG2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK2" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="BJ2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -953,7 +939,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>67</v>
@@ -976,10 +962,10 @@
       <c r="P3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="S3" s="0" t="s">
@@ -994,85 +980,85 @@
       <c r="V3" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>81</v>
+      <c r="X3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AF3" s="6" t="s">
-        <v>76</v>
+      <c r="AC3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AJ3" s="0" t="s">
         <v>68</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BC3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BE4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="BJ4" s="2"/>
     </row>

--- a/Input/ADNT_International/benefits.xlsx
+++ b/Input/ADNT_International/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Dental Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental </t>
+    <t xml:space="preserve">Dental</t>
   </si>
   <si>
     <t xml:space="preserve">Dental Waiting Period </t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Routine Maternity</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental</t>
+    <t xml:space="preserve">Dental Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t xml:space="preserve">residency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent benefits</t>
   </si>
   <si>
     <t xml:space="preserve">IPMI 1</t>
@@ -260,10 +266,7 @@
     <t xml:space="preserve">Covered as stipulated by MOH</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 4,100 with 10% co-pay (note: benefit available for married females only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No wait</t>
+    <t xml:space="preserve">&amp;</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 150,000</t>
@@ -272,9 +275,6 @@
     <t xml:space="preserve">Covered for first 30 days</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 1,400 with 20% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered with limitations up to USD 400 with 20% co-pay</t>
   </si>
   <si>
@@ -342,6 +342,32 @@
     <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">benefitName:Dental &amp; label:Dental Added &amp; rateSheetLabel:dental &amp; type:fixed &amp; flag:-n/-p &amp; conditions:IPMI 1 &amp; description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Covered with limitations up to USD 1,400 with 20% co-pay</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental - Dental Waiting Period 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPMI 2</t>
   </si>
   <si>
@@ -351,12 +377,6 @@
     <t xml:space="preserve">Inside UAE- Covered in full subject to declaration *6 months wait applicable if COC is not provided Outside UAE- Covered up to USD 5,000 (Combined with chronic conditions)</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 6,900 with 10% co-pay (note: benefit available for married females only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 2,100 with 20% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered with limitations up to USD 700 with 20% co-pay</t>
   </si>
   <si>
@@ -397,7 +417,259 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">benefitName:Dental &amp; label:Dental Added &amp; rateSheetLabel:dental &amp; type:fixed &amp; flag:-n/-p &amp; conditions:IPMI 2 &amp; description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Covered with limitations up to USD 2,100 with 20% co-pay</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery) - Maternity Waiting Period
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Consultation- 20% up to USD 13.5, OP- 10%, Pharmacy- 10%/10%/10%/20%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">benefitName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; label:Enhanced Maternity &amp; rateSheetLabel:m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">aternity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; type:fixed &amp; flag:-n/-p &amp; conditions:IPMI 1 &amp; description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 4,100 with 10% co-pay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">benefitName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; label:Enhanced Maternity &amp; rateSheetLabel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">maternity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; type:conditional &amp; flag:-n/-p &amp; conditions:IPMI 2 &amp; description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 6,900 with 10% co-pay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">benefitName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; label:Enhanced Maternity &amp; rateSheetLabel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">maternity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">conditional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; flag:-n/-p &amp; conditions:IPMI 1 &amp; description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">OP- Covered with 10% co-pay IP- Covered up to USD 4,100 with 10% co-pay</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -408,7 +680,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -450,6 +722,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -457,6 +730,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -512,6 +810,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -534,7 +836,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,10 +857,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK4"/>
+  <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM6" activeCellId="0" sqref="BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,18 +875,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="47.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="49.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="72.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="84.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="46.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="32.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="23.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="55.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="33" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="46.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="58" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="63" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="41.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="42.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="35.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="67" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
@@ -769,84 +1075,93 @@
       <c r="BK1" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="BL1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>74</v>
+      <c r="X2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="Z2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AD2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AG2" s="0" t="s">
@@ -859,7 +1174,7 @@
         <v>81</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL2" s="0" t="s">
         <v>82</v>
@@ -873,8 +1188,8 @@
       <c r="AT2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="3" t="s">
-        <v>62</v>
+      <c r="AW2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="AX2" s="0" t="s">
         <v>84</v>
@@ -900,102 +1215,112 @@
       <c r="BE2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BF2" s="7" t="s">
         <v>88</v>
       </c>
       <c r="BG2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="BI2" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BK2" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="BL2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="Z3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AD3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>99</v>
       </c>
       <c r="AG3" s="0" t="s">
@@ -1008,7 +1333,7 @@
         <v>102</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL3" s="0" t="s">
         <v>82</v>
@@ -1022,8 +1347,8 @@
       <c r="AT3" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="AW3" s="3" t="s">
-        <v>62</v>
+      <c r="AW3" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="AX3" s="0" t="s">
         <v>84</v>
@@ -1049,18 +1374,37 @@
       <c r="BE3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BH3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="BL3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BE4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BJ4" s="2"/>
+      <c r="BL4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL5" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BL6" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
